--- a/app/class_info.xlsx
+++ b/app/class_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>subject</t>
   </si>
@@ -91,53 +91,65 @@
     <t>diveristy</t>
   </si>
   <si>
-    <t>arrow</t>
-  </si>
-  <si>
-    <t>p&gt;A Subject Area defines an overall area of study. All subject areas are listed alphabetically, and only subject areas with courses offered in the selected term will display. A list of all active subject areas is available on the &lt;a href="http://registrar.ucla.edu/Academics/Course-Descriptions"&gt;Course Descriptions&lt;/a&gt; page.</t>
-  </si>
-  <si>
-    <t>/ro/Public/SOC/Results/ClassDetail?term_cd=18W&amp;amp;subj_area_cd=MATH%20%20%20&amp;amp;crs_catlg_no=0155%20%20%20%20&amp;amp;class_id=262576200&amp;amp;class_no=%20001%20%20" target="_blank" title="Class Detail for 262576200"</t>
-  </si>
-  <si>
-    <t>s an overall area of study. All subject areas are listed alphabetically, and only subject areas with courses offered in the selected term will display. A list of all active subject areas is available on the &lt;a href="http://registrar.ucla.edu/Academics/Course-Descriptions"&gt;Course Descriptions</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Waitlist Status</t>
-  </si>
-  <si>
-    <t>&lt;a class="popover-bottom" data-content='Click &amp;lt;i class="icon-info-sign"&amp;gt;&amp;lt;/i&amp;gt; to see more class information (e.g., website, exam info, notes).  Click &amp;lt;i class="icon-warning-sign"&amp;gt;&amp;lt;/i&amp;gt; to see class warnings (e.g., enrollment restrictions, requisites, etc.).  Click &amp;lt;strong&amp;gt;more detail&amp;lt;/strong&amp;gt; to see full class details.' href="javascript:void(0)"&gt;Info&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Day(s)</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>ct Area defines an overall area of study. All subject areas are listed alphabetically, and only subject areas with courses offered in the selected term will display. A list of all active subject areas is available on the &lt;a href="http://registrar.ucla.edu/Academics/Course-Descriptions"&gt;Course Descriptions&lt;/a&gt; page.</t>
-  </si>
-  <si>
-    <t>Meeting Day</t>
-  </si>
-  <si>
-    <t>Meeting Time</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Area defines an overall area of study. All subject areas are listed alphabetically, and only subject areas with courses offered in the selected term will display. A list of all active subject areas is available on the &lt;a href="http://registrar.ucla.edu/Academics/Course-Descriptions"&gt;Course Descriptions&lt;/a&gt; page.</t>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>Mathematical Imaging</t>
+  </si>
+  <si>
+    <t>https://ccle.ucla.edu/course/view/18W-MATH155-1"</t>
+  </si>
+  <si>
+    <t>Closed: Class Full (40)</t>
+  </si>
+  <si>
+    <t>No Waitlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M W F </t>
+  </si>
+  <si>
+    <t>1pm-1:50pm</t>
+  </si>
+  <si>
+    <t>Mathematical Sciences Room 5118</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Vese, L.A.</t>
+  </si>
+  <si>
+    <t>March 23, 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F </t>
+  </si>
+  <si>
+    <t>8am-11am</t>
+  </si>
+  <si>
+    <t>PNP Letter</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Lecture, three hours; discussion, one hour. Requisites: courses 32B, 33B, 115A (enforced), Program in Computing 10A. Imaging geometry. Image transforms. Enhancement, restoration, and segmentation. Descriptors. Morphology. P/NP or letter grading.</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +164,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,16 +205,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -575,53 +600,65 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
         <v>27</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/class_info.xlsx
+++ b/app/class_info.xlsx
@@ -103,10 +103,10 @@
     <t>http://ucla.verbacompare.com/compare?catids=18W263304220" target="_blank" title="Textbooks for Statistics (STATS) 100B - Introduction to Mathematical Statistics"</t>
   </si>
   <si>
-    <t>Open: 2 of 70 Left</t>
-  </si>
-  <si>
-    <t>4 of 10 Taken</t>
+    <t>Waitlist: Class Full (70)</t>
+  </si>
+  <si>
+    <t>5 of 10 Taken</t>
   </si>
   <si>
     <t xml:space="preserve">M W </t>

--- a/app/class_info.xlsx
+++ b/app/class_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
   <si>
     <t>subject</t>
   </si>
@@ -91,61 +91,247 @@
     <t>diveristy</t>
   </si>
   <si>
-    <t>STATS</t>
-  </si>
-  <si>
-    <t>00B</t>
-  </si>
-  <si>
-    <t>Introduction to Mathematical Statistics</t>
-  </si>
-  <si>
-    <t>http://ucla.verbacompare.com/compare?catids=18W263304220" target="_blank" title="Textbooks for Statistics (STATS) 100B - Introduction to Mathematical Statistics"</t>
-  </si>
-  <si>
-    <t>Waitlist: Class Full (70)</t>
-  </si>
-  <si>
-    <t>5 of 10 Taken</t>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>131A</t>
+  </si>
+  <si>
+    <t>Mathematical Imaging</t>
+  </si>
+  <si>
+    <t>Computer Networks: Physical Layer</t>
+  </si>
+  <si>
+    <t>Computer Science Seminar</t>
+  </si>
+  <si>
+    <t>Fundamentals of Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Logic Design of Digital Systems</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>https://ccle.ucla.edu/course/view/18W-MATH155-1"</t>
+  </si>
+  <si>
+    <t>https://ccle.ucla.edu/course/view/18W-COMSCIM117-1"</t>
+  </si>
+  <si>
+    <t>https://ccle.ucla.edu/course/view/18W-COMSCI201-1"</t>
+  </si>
+  <si>
+    <t>https://ccle.ucla.edu/course/view/18W-COMSCI161-1"</t>
+  </si>
+  <si>
+    <t>https://ccle.ucla.edu/course/view/18W-COMSCIM51A-1"</t>
+  </si>
+  <si>
+    <t>https://ccle.ucla.edu/course/view/18W-MATH131A-1"</t>
+  </si>
+  <si>
+    <t>https://ccle.ucla.edu/course/view/18W-COMSCIM51A-2"</t>
+  </si>
+  <si>
+    <t>Closed: Class Full (40)</t>
+  </si>
+  <si>
+    <t>Closed: Class Full (168)</t>
+  </si>
+  <si>
+    <t>Waitlist: Class Full (167)</t>
+  </si>
+  <si>
+    <t>Open: 48 of 99 Left</t>
+  </si>
+  <si>
+    <t>Open: 24 of 141 Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed by Dept Computer Science </t>
+  </si>
+  <si>
+    <t>No Waitlist</t>
+  </si>
+  <si>
+    <t>Waitlist Full (12)</t>
+  </si>
+  <si>
+    <t>8 of 17 Taken</t>
+  </si>
+  <si>
+    <t>2 of 15 Taken</t>
+  </si>
+  <si>
+    <t>7 of 55 Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M W F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu Th </t>
   </si>
   <si>
     <t xml:space="preserve">M W </t>
   </si>
   <si>
-    <t>3:30pm-4:45pm</t>
-  </si>
-  <si>
-    <t>Franz Hall Room 2258A</t>
+    <t>1pm-1:50pm</t>
+  </si>
+  <si>
+    <t>12pm-1:50pm</t>
+  </si>
+  <si>
+    <t>4pm-5:50pm</t>
+  </si>
+  <si>
+    <t>10am-11:50am</t>
+  </si>
+  <si>
+    <t>8am-9:50am</t>
+  </si>
+  <si>
+    <t>9am-9:50am</t>
+  </si>
+  <si>
+    <t>Mathematical Sciences Room 5118</t>
+  </si>
+  <si>
+    <t>Boelter Hall Room 3400</t>
+  </si>
+  <si>
+    <t>Haines Hall Room A18</t>
+  </si>
+  <si>
+    <t>Mathematical Sciences Room 5138</t>
+  </si>
+  <si>
+    <t>Franz Hall Room 1260</t>
   </si>
   <si>
     <t>4.0</t>
   </si>
   <si>
-    <t>Li, K.C.</t>
-  </si>
-  <si>
-    <t>March 20, 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tu </t>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Vese, L.A.</t>
+  </si>
+  <si>
+    <t>Dzhanidze, R.P.</t>
+  </si>
+  <si>
+    <t>Sankararaman, S.</t>
+  </si>
+  <si>
+    <t>van Den Broeck, G.</t>
+  </si>
+  <si>
+    <t>Ercegovac, M.D.</t>
+  </si>
+  <si>
+    <t>Andrews, M.J.</t>
+  </si>
+  <si>
+    <t>He, L.</t>
+  </si>
+  <si>
+    <t>March 23, 2018</t>
+  </si>
+  <si>
+    <t>None listed</t>
+  </si>
+  <si>
+    <t>March 22, 2018</t>
+  </si>
+  <si>
+    <t>March 21, 2018</t>
+  </si>
+  <si>
+    <t>March 19, 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Th </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
   </si>
   <si>
     <t>8am-11am</t>
   </si>
   <si>
+    <t>Consult instructor for method of evaluation</t>
+  </si>
+  <si>
+    <t>11:30am-2:30pm</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
     <t>PNP Letter</t>
   </si>
   <si>
-    <t xml:space="preserve">Class: &lt;br/&gt;Statistics Majors or Premajors or Minors </t>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class: &lt;br/&gt;Computer Science and Electrical Engineering Juniors and Seniors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class: &lt;br/&gt;Computer Science Grad Students </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class: &lt;br/&gt;Ug Engr, Several Other Majors; Bioinfo Minor </t>
   </si>
   <si>
     <t>Upper</t>
   </si>
   <si>
-    <t>Lecture, three hours; discussion, one hour. Requisite: course 100A or Mathematics 170A. Survey sampling, estimation, testing, data summary, one- and two-sample problems. P/NP or letter grading.</t>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Lecture, three hours; discussion, one hour. Requisites: courses 32B, 33B, 115A (enforced), Program in Computing 10A. Imaging geometry. Image transforms. Enhancement, restoration, and segmentation. Descriptors. Morphology. P/NP or letter grading.</t>
+  </si>
+  <si>
+    <t>(Same as Electrical and Computer Engineering M117.) Lecture, two hours; discussion, two hours; laboratory, two hours; outside study, six hours. Not open to students with credit for course M171L. Introduction to fundamental computer communication concepts underlying and supporting modern networks, with focus on wireless communications and media access layers of network protocol stack. Systems include wireless LANs (IEEE802.11) and ad hoc wireless and personal area networks (e.g., Bluetooth, ZigBee). Experimental project based on mobile radio-equipped devices (smart phones, tablets, etc.) as sensor platforms for personal applications such as wireless health, positioning, and environment awareness, and experimental laboratory sessions included. Letter grading.</t>
+  </si>
+  <si>
+    <t>Seminar, four hours; outside study, two hours. Designed for graduate computer science students. Seminars on current research topics in computer science. May be repeated for credit. S/U grading.</t>
+  </si>
+  <si>
+    <t>Lecture, four hours; laboratory, two hours; outside study, six hours. Enforced requisite: course 180. Introduction to fundamental problem solving and knowledge representation paradigms of artificial intelligence. Introduction to Lisp with regular programming assignments. State-space and problem reduction methods, brute-force and heuristic search, planning techniques, two-player games. Knowledge structures including predicate logic, production systems, semantic nets and primitives, frames, scripts. Special topics in natural language processing, expert systems, vision, and parallel architectures. Letter grading.</t>
+  </si>
+  <si>
+    <t>(Same as Electrical and Computer Engineering M16.) Lecture, four hours; discussion, two hours; outside study, six hours. Introduction to digital systems. Specification and implementation of combinational and sequential systems. Standard logic modules and programmable logic arrays. Specification and implementation of algorithmic systems: data and control sections. Number systems and arithmetic algorithms. Error control codes for digital information. Letter grading.</t>
+  </si>
+  <si>
+    <t>Lecture, three hours; discussion, one hour. Requisites: courses 32B, 33B. Recommended: course 115A. Rigorous introduction to foundations of real analysis; real numbers, point set topology in Euclidean space, functions, continuity. P/NP or letter grading.</t>
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li style="list-style-type: disc; margin-left:1em; color: black;"&gt;Students who enroll in upper-division HSSEAS courses without completing the requisites are subject to disenrollment after the second class meeting. If necessary, consult an HSSEAS counselor in 6426 Boelter Hall.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
 </sst>
 </file>
@@ -516,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,63 +793,495 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" t="s">
+        <v>98</v>
+      </c>
+      <c r="W2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" t="s">
+        <v>99</v>
+      </c>
+      <c r="W3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" t="s">
+        <v>96</v>
+      </c>
+      <c r="V4" t="s">
+        <v>100</v>
+      </c>
+      <c r="W4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" t="s">
+        <v>95</v>
+      </c>
+      <c r="V7" t="s">
+        <v>103</v>
+      </c>
+      <c r="W7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>90</v>
+      </c>
+      <c r="U8" t="s">
+        <v>95</v>
+      </c>
+      <c r="V8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W2" t="s">
-        <v>43</v>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" t="s">
+        <v>102</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
